--- a/Users Loads23.xlsx
+++ b/Users Loads23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2639751630428581</v>
+        <v>2.445536894716397</v>
       </c>
       <c r="C2" t="n">
-        <v>4.337258502169067</v>
+        <v>7.829402526080885</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7045615102946041</v>
+        <v>0.5420603249003577</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.308381285557439</v>
+        <v>4.496925768829903</v>
       </c>
       <c r="C3" t="n">
-        <v>3.44048386678232</v>
+        <v>4.797147834448788</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5329780939489218</v>
+        <v>0.7318328169475065</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.956642105255237</v>
+        <v>8.832662183652227</v>
       </c>
       <c r="C4" t="n">
-        <v>1.703408095439736</v>
+        <v>8.460976689362541</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5354128909082487</v>
+        <v>0.5624103054681349</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.364520181446672</v>
+        <v>9.844133276113917</v>
       </c>
       <c r="C5" t="n">
-        <v>4.189199545820657</v>
+        <v>5.971218720446261</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4030371069226437</v>
+        <v>0.4189719366203122</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.44648638298266</v>
+        <v>15.73589567878173</v>
       </c>
       <c r="C6" t="n">
-        <v>4.048106416908043</v>
+        <v>6.997434286806908</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5827385058130222</v>
+        <v>0.4144148640209141</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.9513867148082</v>
+        <v>17.28056393333737</v>
       </c>
       <c r="C7" t="n">
-        <v>2.790112795242602</v>
+        <v>1.967223196453549</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3502351608416118</v>
+        <v>0.3273912404230196</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.4347053570023</v>
+        <v>20.02744921571876</v>
       </c>
       <c r="C8" t="n">
-        <v>1.98876304776997</v>
+        <v>3.259834415161645</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3316142904443005</v>
+        <v>0.430772475052391</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.08338585313294</v>
+        <v>20.69632077355269</v>
       </c>
       <c r="C9" t="n">
-        <v>5.68766642979611</v>
+        <v>5.818938428146891</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5557854864300029</v>
+        <v>0.2469096329669226</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.81556754413338</v>
+        <v>25.50173450457817</v>
       </c>
       <c r="C10" t="n">
-        <v>5.626155736904972</v>
+        <v>8.056269046311897</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5583170985852963</v>
+        <v>0.4412296520074282</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.10620832843713</v>
+        <v>31.06959467462504</v>
       </c>
       <c r="C11" t="n">
-        <v>4.073268776917013</v>
+        <v>2.656976074725208</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5496028343540162</v>
+        <v>0.1966617103599747</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24.18956775353995</v>
+        <v>31.55189299333306</v>
       </c>
       <c r="C12" t="n">
-        <v>5.15182647111274</v>
+        <v>2.805963384713197</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3869958610069248</v>
+        <v>0.2661515791895444</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.24736280799285</v>
+        <v>35.94476389886777</v>
       </c>
       <c r="C13" t="n">
-        <v>5.68291912031144</v>
+        <v>2.391127010749314</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8573816874065786</v>
+        <v>0.3413820667777185</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.16173492670835</v>
+        <v>41.29776518744931</v>
       </c>
       <c r="C14" t="n">
-        <v>2.220541002005308</v>
+        <v>6.416087723833429</v>
       </c>
       <c r="D14" t="n">
-        <v>0.210002025381204</v>
+        <v>0.7402799400678461</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28.26125076836771</v>
+        <v>42.55203331570426</v>
       </c>
       <c r="C15" t="n">
-        <v>3.174930292263131</v>
+        <v>5.260895365838016</v>
       </c>
       <c r="D15" t="n">
-        <v>0.558949784621027</v>
+        <v>0.4703994652945448</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>30.03493782945234</v>
+        <v>43.28640870070896</v>
       </c>
       <c r="C16" t="n">
-        <v>3.703815956301014</v>
+        <v>1.597580643334447</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5598921246083464</v>
+        <v>0.1889441609122275</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>35.00394673809359</v>
+        <v>44.94940382211427</v>
       </c>
       <c r="C17" t="n">
-        <v>1.682032336515574</v>
+        <v>7.982954491489055</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2709461864893529</v>
+        <v>0.3716269222220399</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>35.27146961322339</v>
+        <v>53.00233719815627</v>
       </c>
       <c r="C18" t="n">
-        <v>5.59582082123702</v>
+        <v>6.021966114370973</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2945213368323111</v>
+        <v>0.4138117504722655</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>38.14701483652131</v>
+        <v>59.26754013262858</v>
       </c>
       <c r="C19" t="n">
-        <v>2.247208580767702</v>
+        <v>4.766719510765896</v>
       </c>
       <c r="D19" t="n">
-        <v>0.391535746923968</v>
+        <v>0.5348004170944076</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>41.08897210917993</v>
+        <v>59.86903283582187</v>
       </c>
       <c r="C20" t="n">
-        <v>2.082578721205442</v>
+        <v>4.494585345786549</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4267767367191999</v>
+        <v>0.3858769664524661</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>42.16409497266726</v>
+        <v>64.91966815519523</v>
       </c>
       <c r="C21" t="n">
-        <v>4.430808985151641</v>
+        <v>2.848458961365638</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4219788467699702</v>
+        <v>0.1669420534296381</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.08882203867199</v>
+        <v>68.179750655014</v>
       </c>
       <c r="C22" t="n">
-        <v>6.698168848663538</v>
+        <v>2.022027275984272</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5131783492941684</v>
+        <v>0.1927933352135154</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45.35108043266207</v>
+        <v>69.82448145364388</v>
       </c>
       <c r="C23" t="n">
-        <v>4.036128289824521</v>
+        <v>4.974711392637212</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2698841641834085</v>
+        <v>0.7275058613209501</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>46.08541234368541</v>
+        <v>77.80416075634751</v>
       </c>
       <c r="C24" t="n">
-        <v>6.854624312091775</v>
+        <v>2.373522696427535</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3628167566325635</v>
+        <v>0.2452683053836704</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49.21017424837464</v>
+        <v>78.30367897273335</v>
       </c>
       <c r="C25" t="n">
-        <v>4.982553025238149</v>
+        <v>2.979985858701936</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5540946414882144</v>
+        <v>0.3453970043326025</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>49.24099073803219</v>
+        <v>79.52042998670262</v>
       </c>
       <c r="C26" t="n">
-        <v>5.703823209912144</v>
+        <v>6.099181867124321</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5816158977324213</v>
+        <v>0.3790216654808976</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>49.37534715252851</v>
+        <v>83.41839748438271</v>
       </c>
       <c r="C27" t="n">
-        <v>2.194086697837114</v>
+        <v>2.86184190286703</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4069332231372811</v>
+        <v>0.3272320430847226</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>50.01145610972251</v>
+        <v>83.86977388735234</v>
       </c>
       <c r="C28" t="n">
-        <v>5.843239417835853</v>
+        <v>4.715039983456942</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5955537351314812</v>
+        <v>0.3786881562668285</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>50.15206292879672</v>
+        <v>86.87508559293649</v>
       </c>
       <c r="C29" t="n">
-        <v>3.263852951835302</v>
+        <v>7.284099632114442</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4664398816041394</v>
+        <v>0.4913434340126935</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>50.30706268343523</v>
+        <v>87.12623642642534</v>
       </c>
       <c r="C30" t="n">
-        <v>3.601794632112602</v>
+        <v>5.214246464393069</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3792576984758614</v>
+        <v>0.5075453141845385</v>
       </c>
     </row>
     <row r="31">
@@ -861,349 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>52.98537648211627</v>
+        <v>96.10583823590858</v>
       </c>
       <c r="C31" t="n">
-        <v>3.155058859926524</v>
+        <v>3.48508080246723</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3803992828512177</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>53.28899780695771</v>
-      </c>
-      <c r="C32" t="n">
-        <v>5.125503970592153</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.6224923535802565</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>54.22364247743974</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2.428099792744789</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.1762056380149149</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>54.58157492892786</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2.91784304403689</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.3767815254610098</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>55.02496995820409</v>
-      </c>
-      <c r="C35" t="n">
-        <v>5.926796306474695</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.6228749364122437</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>56.33722857743626</v>
-      </c>
-      <c r="C36" t="n">
-        <v>8.12497345313526</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.5328391170312416</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>58.14110262159092</v>
-      </c>
-      <c r="C37" t="n">
-        <v>6.637211463781386</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.4734832509097442</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>61.21401612351339</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3.663587215312701</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.2903169135180317</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>61.75444052004458</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1.974308941416796</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.372761708805001</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>70.40585149085271</v>
-      </c>
-      <c r="C40" t="n">
-        <v>4.46640788530486</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.5814637912279322</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>70.81262874264698</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3.634550974528756</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.5588202336709114</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>71.28555771863927</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2.43853266881292</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.2885724247546934</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>71.74523989116366</v>
-      </c>
-      <c r="C43" t="n">
-        <v>3.599901737044404</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.2326834281722303</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>72.02298905036689</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1.300961279856668</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.368696353850487</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>73.64897346157812</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1.541409249221938</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.2457954051918247</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>74.54808939474006</v>
-      </c>
-      <c r="C46" t="n">
-        <v>4.527211198471436</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.4631708957008169</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>76.69635467083212</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1.065338055712215</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.2722095389708071</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>84.33541182026366</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3.471664369121557</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.2706712684575049</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>85.33702442932469</v>
-      </c>
-      <c r="C49" t="n">
-        <v>7.771301058922424</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5658555208228523</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>86.5549574464841</v>
-      </c>
-      <c r="C50" t="n">
-        <v>4.499785044582716</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.4340111586909615</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>88.08661824369513</v>
-      </c>
-      <c r="C51" t="n">
-        <v>5.368041132821922</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5669183232386158</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>92.73241000144745</v>
-      </c>
-      <c r="C52" t="n">
-        <v>5.225504461398534</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.4017687115418938</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>95.95140745389543</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1.167365549591624</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.2360629085410569</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>96.47292379242276</v>
-      </c>
-      <c r="C54" t="n">
-        <v>3.459981447676046</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.2654943874229896</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>99.48477861824198</v>
-      </c>
-      <c r="C55" t="n">
-        <v>6.94926246993104</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.6143396683860856</v>
+        <v>0.3022845659122256</v>
       </c>
     </row>
   </sheetData>
